--- a/biology/Botanique/Festuca_vivipara/Festuca_vivipara.xlsx
+++ b/biology/Botanique/Festuca_vivipara/Festuca_vivipara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca vivipara, la fétuque vivipare,  est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire de l'hémisphère nord.
-Une étude britannique de 1986 conclut que cette espèce appartient sans aucun doute au complexe d'espèces Festuca ovina[2].
+Une étude britannique de 1986 conclut que cette espèce appartient sans aucun doute au complexe d'espèces Festuca ovina.
 C'est une plante herbacée vivace, cespiteuse, aux chaumes pouvant atteindre de 8 à 20 cm de long, à l'inflorescence en panicule, dont les fleurons sont souvent transformés en bulbilles par prolifération végétative.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Festuca vivipara comprend l'Europe septentrionale et orientale, la Sibérie et l'Extrême-Orient russe ainsi que les régions sub-arctiques de l'Amérique du Nord[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Festuca vivipara comprend l'Europe septentrionale et orientale, la Sibérie et l'Extrême-Orient russe ainsi que les régions sub-arctiques de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 octobre 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 octobre 2016) :
 Festuca brachyphylla f. vivipara Skvortsov, nom. nud.
 Festuca ovina f. villosa-vivipara Rosenv.
 Festuca ovina f. vivipara (L.) Rosenv.
@@ -581,9 +597,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 octobre 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Festuca vivipara subsp. glabra Fred.
 sous-espèce Festuca vivipara subsp. hirsuta (Schol.) Fred.
 sous-espèce Festuca vivipara subsp. vivipara
